--- a/4. Stores/WTI Models.xlsx
+++ b/4. Stores/WTI Models.xlsx
@@ -406,25 +406,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.002686090885284193</v>
+        <v>-0.0107806558818491</v>
       </c>
       <c r="C2">
-        <v>0.07866235294639465</v>
+        <v>0.08627087280726489</v>
       </c>
       <c r="D2">
-        <v>0.06385417058121493</v>
+        <v>0.06661909773206318</v>
       </c>
       <c r="E2">
-        <v>-60.34381463176307</v>
+        <v>-100.7163431403851</v>
       </c>
       <c r="F2">
-        <v>224.3221184033301</v>
+        <v>278.833087812405</v>
       </c>
       <c r="G2">
-        <v>0.01210609853616799</v>
+        <v>0.06729153551113465</v>
       </c>
       <c r="H2">
-        <v>1.766776418912613</v>
+        <v>1.849892940460674</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +434,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.01169336863756255</v>
+        <v>0.006602676667589281</v>
       </c>
       <c r="C3">
-        <v>0.06030489353470933</v>
+        <v>0.07044036711917175</v>
       </c>
       <c r="D3">
-        <v>0.04959129996281209</v>
+        <v>0.05602314991731332</v>
       </c>
       <c r="E3">
-        <v>85.25128533561607</v>
+        <v>102.4276140111388</v>
       </c>
       <c r="F3">
-        <v>85.25128533561607</v>
+        <v>110.5478625696621</v>
       </c>
       <c r="G3">
-        <v>0.161483949266581</v>
+        <v>0.1696433592709343</v>
       </c>
       <c r="H3">
-        <v>0.8308842409714864</v>
+        <v>1.053267815685589</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.01162743510941416</v>
+        <v>0.006644843771263564</v>
       </c>
       <c r="C4">
-        <v>0.05982805550102981</v>
+        <v>0.07065548800537765</v>
       </c>
       <c r="D4">
-        <v>0.0491882117115688</v>
+        <v>0.05614827948770847</v>
       </c>
       <c r="E4">
-        <v>84.53971833867953</v>
+        <v>102.7658263036978</v>
       </c>
       <c r="F4">
-        <v>84.53971833867953</v>
+        <v>111.7461851377799</v>
       </c>
       <c r="G4">
-        <v>0.1603143151081087</v>
+        <v>0.1718580339579329</v>
       </c>
       <c r="H4">
-        <v>0.8238999506131122</v>
+        <v>1.060436239640791</v>
       </c>
     </row>
   </sheetData>
